--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholaswoel-nogueira/Documents/Senior Year/Winter/AI Life/PythonEnviorment/AI_Life/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A604A1-1E4D-B149-A4B4-B89C38A8C62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA018A8D-264A-914D-AC8E-71A154DEEFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{4BA3339F-69F9-6C47-8336-0F01D7878FAE}"/>
   </bookViews>
@@ -13809,7 +13809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8486FC2-B063-AB48-A77F-9E065C7E32AB}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="109" workbookViewId="0">
       <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
